--- a/static/characters.xlsx
+++ b/static/characters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingdata-10219/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingdata-10219/Documents/HBuilderProjects/ysSelector/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BF40DF-AA0F-7E4F-A689-CCD462F58F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F4AF2-C7C4-FC46-BDF5-158AC0F21A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15560" xr2:uid="{D73A0DAC-F122-4A49-94D0-D3AA9491B361}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>钟离</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>丽莎</t>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,41 +417,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD51059-125C-2048-B023-06F5A476CB46}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/static/characters.xlsx
+++ b/static/characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingdata-10219/Documents/HBuilderProjects/ysSelector/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F4AF2-C7C4-FC46-BDF5-158AC0F21A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48498C-2E3D-C046-9E75-30FF014756A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15560" xr2:uid="{D73A0DAC-F122-4A49-94D0-D3AA9491B361}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>钟离</t>
   </si>
@@ -53,6 +53,146 @@
   </si>
   <si>
     <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪卢克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达达利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿贝多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神里绫华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优菈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宵宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫原万叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚宫心海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃洛伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒泷一斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪奥娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛焱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗莎莉亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云堇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟绯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早柚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九条裟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托马</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,9 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD51059-125C-2048-B023-06F5A476CB46}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -458,6 +600,181 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/characters.xlsx
+++ b/static/characters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingdata-10219/Documents/HBuilderProjects/ysSelector/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48498C-2E3D-C046-9E75-30FF014756A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80262B6F-F1F6-5F4F-9574-49C2C3C7FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15560" xr2:uid="{D73A0DAC-F122-4A49-94D0-D3AA9491B361}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="27840" windowHeight="16060" xr2:uid="{D73A0DAC-F122-4A49-94D0-D3AA9491B361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>钟离</t>
   </si>
@@ -193,6 +193,34 @@
   </si>
   <si>
     <t>托马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺艾尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班尼特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲谢尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD51059-125C-2048-B023-06F5A476CB46}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -775,6 +803,41 @@
         <v>41</v>
       </c>
     </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
